--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B07A17-7D2E-4916-BF81-FB1728932F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98E158-EDA6-472A-A43D-222CA8A7ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="Generate Document" sheetId="1" r:id="rId1"/>
     <sheet name="Generate Petition" sheetId="2" r:id="rId2"/>
     <sheet name="Petition Allegation" sheetId="3" r:id="rId3"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId4"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -103,7 +105,49 @@
     <t>JV 100</t>
   </si>
   <si>
-    <t>test</t>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>APPROVAL_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>ACTUAL_APPROVER_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMENTS_VERIFY</t>
+  </si>
+  <si>
+    <t>testT4149</t>
   </si>
 </sst>
 </file>
@@ -470,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +554,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -585,7 +629,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -619,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,7 +707,7 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -685,6 +729,230 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="25.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98E158-EDA6-472A-A43D-222CA8A7ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3456879-C841-4C7A-9373-42B46FFC58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generate Document" sheetId="1" r:id="rId1"/>
-    <sheet name="Generate Petition" sheetId="2" r:id="rId2"/>
-    <sheet name="Petition Allegation" sheetId="3" r:id="rId3"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId4"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId5"/>
+    <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
+    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId2"/>
+    <sheet name="CourtReports" sheetId="8" r:id="rId3"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId4"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId5"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId6"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -148,6 +150,108 @@
   </si>
   <si>
     <t>testT4149</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>OTHER_PARTICIPANTS_ATTENDANCE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTH_WITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS_ORDERED_BY_COURT</t>
+  </si>
+  <si>
+    <t>DISCUSSION</t>
+  </si>
+  <si>
+    <t>PLACEMENT_DISCUSSION</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>VISITATION</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CASA_APPOINTED_DETAILS</t>
+  </si>
+  <si>
+    <t>ORDER_TO_SHOW_CAUSE</t>
+  </si>
+  <si>
+    <t>DISCOVERY_DUE_DATE</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_TYPE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
+    <t>ROOM_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_CLERICAL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_TO</t>
+  </si>
+  <si>
+    <t>METHOD_OF_TRANSLATION_DOCUMENTS_SENT</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_DATE</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>NAME_OF_COURT</t>
+  </si>
+  <si>
+    <t>METHOD_OF_FILING</t>
+  </si>
+  <si>
+    <t>DATE_REPORT_FILED</t>
+  </si>
+  <si>
+    <t>FILING_DUE_DATE</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SUBMITTED_FOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_APPROVAL_DATE</t>
   </si>
 </sst>
 </file>
@@ -514,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -582,11 +686,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" customWidth="1"/>
+    <col min="8" max="8" width="31.7265625" customWidth="1"/>
+    <col min="9" max="9" width="47.36328125" customWidth="1"/>
+    <col min="10" max="10" width="55.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="58.1796875" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="23.1796875" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
+    <col min="20" max="20" width="18.453125" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="22" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="10" max="10" width="41.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" customWidth="1"/>
+    <col min="12" max="12" width="39.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" customWidth="1"/>
+    <col min="17" max="17" width="23.6328125" customWidth="1"/>
+    <col min="18" max="18" width="30.90625" customWidth="1"/>
+    <col min="19" max="19" width="25.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -737,12 +1069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3456879-C841-4C7A-9373-42B46FFC58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5EC9C-D0DD-46E8-985C-4D670ECDA89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -16,10 +16,13 @@
     <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
     <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId2"/>
     <sheet name="CourtReports" sheetId="8" r:id="rId3"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId4"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId5"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId6"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId7"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId4"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId5"/>
+    <sheet name="RelatedFolios" sheetId="11" r:id="rId6"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId7"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId8"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId9"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -252,6 +255,102 @@
   </si>
   <si>
     <t>SUPERVISOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>COURT_MINUTE_ORDER_TAB</t>
+  </si>
+  <si>
+    <t>SELECT_COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>SELECT_FINDINGS</t>
+  </si>
+  <si>
+    <t>KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>COURT_ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITY_OUTCOME</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_COURT_ORDERS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_DISTRIBUTIONS_TAB</t>
+  </si>
+  <si>
+    <t>COURT_DOCUMENTS</t>
+  </si>
+  <si>
+    <t>NOTICE</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>RECIPIENT</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_PROVIDED_WITH_NOTICE</t>
+  </si>
+  <si>
+    <t>NOTICES_BEING_SENT_TO</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENTE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_REPORT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>YES_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
   </si>
 </sst>
 </file>
@@ -685,12 +784,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,7 +894,7 @@
     <col min="6" max="6" width="30.6328125" customWidth="1"/>
     <col min="7" max="7" width="32.90625" customWidth="1"/>
     <col min="8" max="8" width="31.7265625" customWidth="1"/>
-    <col min="9" max="9" width="47.36328125" customWidth="1"/>
+    <col min="9" max="9" width="49.36328125" customWidth="1"/>
     <col min="10" max="10" width="55.08984375" customWidth="1"/>
     <col min="11" max="11" width="13.36328125" customWidth="1"/>
     <col min="12" max="12" width="21.1796875" customWidth="1"/>
@@ -716,10 +907,12 @@
     <col min="19" max="19" width="20.7265625" customWidth="1"/>
     <col min="20" max="20" width="18.453125" customWidth="1"/>
     <col min="21" max="21" width="31" customWidth="1"/>
-    <col min="22" max="22" width="24.26953125" customWidth="1"/>
+    <col min="22" max="22" width="50.26953125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="39.54296875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -784,13 +977,19 @@
         <v>52</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -808,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,9 +1032,10 @@
     <col min="17" max="17" width="23.6328125" customWidth="1"/>
     <col min="18" max="18" width="30.90625" customWidth="1"/>
     <col min="19" max="19" width="25.7265625" customWidth="1"/>
+    <col min="20" max="22" width="25.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -894,10 +1094,19 @@
         <v>69</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -914,11 +1123,294 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="37" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.6328125" style="6" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,12 +1483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,7 +1503,7 @@
     <col min="8" max="8" width="45.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1199,96 +1691,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F5EC9C-D0DD-46E8-985C-4D670ECDA89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98AEB67-E90A-4D01-9188-D89A6B516E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
     <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId2"/>
     <sheet name="CourtReports" sheetId="8" r:id="rId3"/>
-    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId4"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId5"/>
-    <sheet name="RelatedFolios" sheetId="11" r:id="rId6"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId7"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId8"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId9"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId10"/>
+    <sheet name="AmendPetition" sheetId="12" r:id="rId4"/>
+    <sheet name="CourtsDocuments" sheetId="13" r:id="rId5"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId6"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId7"/>
+    <sheet name="RelatedFolios" sheetId="11" r:id="rId8"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId9"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId10"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId11"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -351,6 +353,36 @@
   </si>
   <si>
     <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>OPTION_AMEND_PETITION</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -785,6 +817,226 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="9" width="23" style="6" customWidth="1"/>
+    <col min="10" max="10" width="45.36328125" customWidth="1"/>
+    <col min="11" max="11" width="45.36328125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="25.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1009,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,6 +1375,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -1247,7 +1633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1331,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1405,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1481,214 +1867,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="45.36328125" customWidth="1"/>
-    <col min="8" max="8" width="45.36328125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="25.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98AEB67-E90A-4D01-9188-D89A6B516E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1020FB2-32AA-42D6-B1B3-6B7311C5FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId11"/>
     <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -58,331 +58,349 @@
     <t>POM_ITERATION</t>
   </si>
   <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>SUBMIT_BTN</t>
+  </si>
+  <si>
+    <t>testT4149</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ICWA 100</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Interstate Compact On The Placement of Children Request (ICPC 100A)</t>
+  </si>
+  <si>
+    <t>Interstate Compact Report on Child's Placement Status (ICPC 100B)</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>OTHER_PARTICIPANTS_ATTENDANCE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTH_WITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS_ORDERED_BY_COURT</t>
+  </si>
+  <si>
+    <t>DISCUSSION</t>
+  </si>
+  <si>
+    <t>PLACEMENT_DISCUSSION</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>VISITATION</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CASA_APPOINTED_DETAILS</t>
+  </si>
+  <si>
+    <t>ORDER_TO_SHOW_CAUSE</t>
+  </si>
+  <si>
+    <t>DISCOVERY_DUE_DATE</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_TYPE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
+    <t>YES_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>ROOM_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
     <t>SAVE_BTN</t>
   </si>
   <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_CLERICAL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_TO</t>
+  </si>
+  <si>
+    <t>METHOD_OF_TRANSLATION_DOCUMENTS_SENT</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_DATE</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>NAME_OF_COURT</t>
+  </si>
+  <si>
+    <t>METHOD_OF_FILING</t>
+  </si>
+  <si>
+    <t>DATE_REPORT_FILED</t>
+  </si>
+  <si>
+    <t>FILING_DUE_DATE</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SUBMITTED_FOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>COURT_REPORT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>OPTION_AMEND_PETITION</t>
+  </si>
+  <si>
+    <t>PETITION_DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_BTN</t>
+  </si>
+  <si>
+    <t>PETITION_DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
     <t>PETITION_ALLEGATION_TAB</t>
   </si>
   <si>
+    <t>COURT_MINUTE_ORDER_TAB</t>
+  </si>
+  <si>
+    <t>SELECT_COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>SELECT_FINDINGS</t>
+  </si>
+  <si>
+    <t>KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>COURT_ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITY_OUTCOME</t>
+  </si>
+  <si>
+    <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_COURT_ORDERS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_DISTRIBUTIONS_TAB</t>
+  </si>
+  <si>
+    <t>COURT_DOCUMENTS</t>
+  </si>
+  <si>
+    <t>NOTICE</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>RECIPIENT</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_PROVIDED_WITH_NOTICE</t>
+  </si>
+  <si>
+    <t>NOTICES_BEING_SENT_TO</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENTE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER_VERIFY</t>
+  </si>
+  <si>
+    <t>OPTION_PETITION</t>
+  </si>
+  <si>
+    <t>GENERATE_PETITION_BTN</t>
+  </si>
+  <si>
+    <t>JV 100</t>
+  </si>
+  <si>
+    <t>ALLEGATION_TYPES</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>ALLEGATION_TYPES_VERIFY</t>
+  </si>
+  <si>
     <t>Physical Abuse</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ALLEGATION_TYPES</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ALLEGATION_TYPES_VERIFY</t>
-  </si>
-  <si>
-    <t>NEW_BTN</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>ICWA 100</t>
-  </si>
-  <si>
-    <t>GENERATE_BTN</t>
-  </si>
-  <si>
-    <t>OPTION_PETITION</t>
-  </si>
-  <si>
-    <t>GENERATE_PETITION_BTN</t>
-  </si>
-  <si>
-    <t>PETITION_DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PETITION_DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>JV 100</t>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>APPROVAL_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>ACTUAL_APPROVER_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMENTS_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
   </si>
   <si>
     <t>AUDIT_HISTORY_TAB</t>
   </si>
   <si>
-    <t>COURT_WORK_ITEM_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>FIELD_VERIFY</t>
-  </si>
-  <si>
-    <t>USER_VERIFY</t>
-  </si>
-  <si>
-    <t>ORIGINAL_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>NEW_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>APPROVAL_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>STEP_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSIGNED_TO_VERIFY</t>
-  </si>
-  <si>
-    <t>ACTUAL_APPROVER_VERIFY</t>
-  </si>
-  <si>
-    <t>COMMENTS_VERIFY</t>
-  </si>
-  <si>
-    <t>testT4149</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS_PRESENT_IN_COURT</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS_PRESENT_REMOTELY</t>
-  </si>
-  <si>
-    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
-    <t>STAFF_WORKER_PRESENT_REMOTELY</t>
-  </si>
-  <si>
-    <t>OTHER_PARTICIPANTS_ATTENDANCE</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTH_WITH_ORDER_DUE_DATE</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS_ORDERED_BY_COURT</t>
-  </si>
-  <si>
-    <t>DISCUSSION</t>
-  </si>
-  <si>
-    <t>PLACEMENT_DISCUSSION</t>
-  </si>
-  <si>
-    <t>ORDERS</t>
-  </si>
-  <si>
-    <t>VISITATION</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>CASA_APPOINTED_DETAILS</t>
-  </si>
-  <si>
-    <t>ORDER_TO_SHOW_CAUSE</t>
-  </si>
-  <si>
-    <t>DISCOVERY_DUE_DATE</t>
-  </si>
-  <si>
-    <t>NEXT_HEARING_TYPE</t>
-  </si>
-  <si>
-    <t>DEPARTMENT_FOR_NEXT_HEARING</t>
-  </si>
-  <si>
-    <t>ROOM_FOR_NEXT_HEARING</t>
-  </si>
-  <si>
-    <t>REPORT_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DUE_DATE_TO_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>DUE_DATE_TO_CLERICAL</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_SENT_TO</t>
-  </si>
-  <si>
-    <t>METHOD_OF_TRANSLATION_DOCUMENTS_SENT</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_SENT_DATE</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_RECEIVED_DATE</t>
-  </si>
-  <si>
-    <t>NAME_OF_COURT</t>
-  </si>
-  <si>
-    <t>METHOD_OF_FILING</t>
-  </si>
-  <si>
-    <t>DATE_REPORT_FILED</t>
-  </si>
-  <si>
-    <t>FILING_DUE_DATE</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>SUBMITTED_FOR_APPROVAL_DATE</t>
-  </si>
-  <si>
-    <t>SUPERVISOR_APPROVAL_DATE</t>
-  </si>
-  <si>
-    <t>COURT_MINUTE_ORDER_TAB</t>
-  </si>
-  <si>
-    <t>SELECT_COURT_WORK_ITEM_PARTICIPANT</t>
-  </si>
-  <si>
-    <t>SELECT_FINDINGS</t>
-  </si>
-  <si>
-    <t>KEY_ORDERS</t>
-  </si>
-  <si>
-    <t>COURT_ORDER_STATUS</t>
-  </si>
-  <si>
-    <t>AD_HOC_ACTIVITY_OUTCOME</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDER_DUE_DATE</t>
-  </si>
-  <si>
-    <t>ADDITIONAL_COURT_ORDERS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_DISTRIBUTIONS_TAB</t>
-  </si>
-  <si>
-    <t>COURT_DOCUMENTS</t>
-  </si>
-  <si>
-    <t>NOTICE</t>
-  </si>
-  <si>
-    <t>DISTRIBUTED_DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>RECIPIENT</t>
-  </si>
-  <si>
-    <t>NOTICE_TYPE</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_PROVIDED_WITH_NOTICE</t>
-  </si>
-  <si>
-    <t>NOTICES_BEING_SENT_TO</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_REF_VERIFY</t>
-  </si>
-  <si>
-    <t>FOLIO_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CASE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICE_COMPONENTE_VERIFY</t>
-  </si>
-  <si>
-    <t>PRIMARY_WORKER_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_REPORT_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>REPORT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>YES_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>NOT_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
-    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
-    <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>OPTION_AMEND_PETITION</t>
-  </si>
-  <si>
-    <t>AMEND_PETITION_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>PETITION_ALLEGATION_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>PETITION_ALLEGATION_VERIFY</t>
+    <t>testT4258</t>
   </si>
 </sst>
 </file>
@@ -404,12 +422,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -428,11 +458,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,67 +777,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
     <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="60.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -820,61 +934,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="9" width="23" style="6" customWidth="1"/>
-    <col min="10" max="10" width="45.36328125" customWidth="1"/>
-    <col min="11" max="11" width="45.36328125" style="4" customWidth="1"/>
+    <col min="7" max="9" width="23" style="4" customWidth="1"/>
+    <col min="10" max="10" width="45.453125" customWidth="1"/>
+    <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>109</v>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -883,19 +997,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -914,76 +1028,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.36328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" style="4" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
     <col min="12" max="12" width="14.26953125" customWidth="1"/>
     <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="25.36328125" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>27</v>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -992,43 +1106,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1046,53 +1160,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31.08984375" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>27</v>
+      <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1101,25 +1215,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1139,19 +1253,19 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="30.1796875" customWidth="1"/>
     <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" customWidth="1"/>
-    <col min="7" max="7" width="32.90625" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
     <col min="8" max="8" width="31.7265625" customWidth="1"/>
-    <col min="9" max="9" width="49.36328125" customWidth="1"/>
-    <col min="10" max="10" width="55.08984375" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="49.453125" customWidth="1"/>
+    <col min="10" max="10" width="55.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
     <col min="12" max="12" width="21.1796875" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
     <col min="15" max="15" width="13.453125" customWidth="1"/>
     <col min="16" max="16" width="58.1796875" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
@@ -1159,91 +1273,91 @@
     <col min="19" max="19" width="20.7265625" customWidth="1"/>
     <col min="20" max="20" width="18.453125" customWidth="1"/>
     <col min="21" max="21" width="31" customWidth="1"/>
-    <col min="22" max="22" width="50.26953125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="39.54296875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="50.26953125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="39.54296875" style="4" customWidth="1"/>
     <col min="24" max="24" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1268,9 +1382,9 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" customWidth="1"/>
     <col min="8" max="8" width="16.453125" customWidth="1"/>
     <col min="9" max="9" width="32.1796875" customWidth="1"/>
@@ -1280,87 +1394,87 @@
     <col min="13" max="13" width="18.1796875" customWidth="1"/>
     <col min="14" max="14" width="21.7265625" customWidth="1"/>
     <col min="15" max="15" width="18.26953125" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" customWidth="1"/>
-    <col min="17" max="17" width="23.6328125" customWidth="1"/>
-    <col min="18" max="18" width="30.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" customWidth="1"/>
+    <col min="18" max="18" width="30.81640625" customWidth="1"/>
     <col min="19" max="19" width="25.7265625" customWidth="1"/>
-    <col min="20" max="22" width="25.7265625" style="6" customWidth="1"/>
+    <col min="20" max="22" width="25.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>3</v>
+      <c r="W1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1388,41 +1502,41 @@
     <col min="2" max="2" width="22.26953125" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="31.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1430,6 +1544,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,49 +1571,49 @@
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>108</v>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1502,6 +1621,14 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1519,84 +1646,84 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="37" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.6328125" style="6" customWidth="1"/>
-    <col min="12" max="15" width="41.1796875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="40.1796875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="44.54296875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="40.1796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>3</v>
+      <c r="R1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1605,26 +1732,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1643,64 +1770,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
     <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
     <col min="12" max="12" width="29.453125" customWidth="1"/>
     <col min="13" max="13" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
-        <v>3</v>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1708,9 +1835,19 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,51 +1864,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="18.453125" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" customWidth="1"/>
     <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
+      <c r="I1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1779,12 +1917,29 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1801,45 +1956,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.453125" customWidth="1"/>
     <col min="6" max="6" width="31.1796875" customWidth="1"/>
     <col min="7" max="7" width="35.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1847,24 +2002,297 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1020FB2-32AA-42D6-B1B3-6B7311C5FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF8CCA-B2F7-4417-BEA6-7915A697D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -94,313 +94,316 @@
     <t>Interstate Compact On The Placement of Children Request (ICPC 100A)</t>
   </si>
   <si>
+    <t>PARTICIPANTS_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_REMOTELY</t>
+  </si>
+  <si>
+    <t>OTHER_PARTICIPANTS_ATTENDANCE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTH_WITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS_ORDERED_BY_COURT</t>
+  </si>
+  <si>
+    <t>DISCUSSION</t>
+  </si>
+  <si>
+    <t>PLACEMENT_DISCUSSION</t>
+  </si>
+  <si>
+    <t>ORDERS</t>
+  </si>
+  <si>
+    <t>VISITATION</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CASA_APPOINTED_DETAILS</t>
+  </si>
+  <si>
+    <t>ORDER_TO_SHOW_CAUSE</t>
+  </si>
+  <si>
+    <t>DISCOVERY_DUE_DATE</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_TYPE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
+    <t>YES_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>ROOM_FOR_NEXT_HEARING</t>
+  </si>
+  <si>
+    <t>SAVE_BTN</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_CLERICAL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_TO</t>
+  </si>
+  <si>
+    <t>METHOD_OF_TRANSLATION_DOCUMENTS_SENT</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_SENT_DATE</t>
+  </si>
+  <si>
+    <t>TRANSLATION_DOCUMENTS_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>NAME_OF_COURT</t>
+  </si>
+  <si>
+    <t>METHOD_OF_FILING</t>
+  </si>
+  <si>
+    <t>DATE_REPORT_FILED</t>
+  </si>
+  <si>
+    <t>FILING_DUE_DATE</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>SUBMITTED_FOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>SUPERVISOR_APPROVAL_DATE</t>
+  </si>
+  <si>
+    <t>COURT_REPORT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>OPTION_AMEND_PETITION</t>
+  </si>
+  <si>
+    <t>PETITION_DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_BTN</t>
+  </si>
+  <si>
+    <t>PETITION_DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NEW_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_TAB</t>
+  </si>
+  <si>
+    <t>COURT_MINUTE_ORDER_TAB</t>
+  </si>
+  <si>
+    <t>SELECT_COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>SELECT_FINDINGS</t>
+  </si>
+  <si>
+    <t>KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>COURT_ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITY_OUTCOME</t>
+  </si>
+  <si>
+    <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
+  </si>
+  <si>
+    <t>IMMEDIATE_ACTION_FORTHWITH_ORDER_DUE_DATE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_COURT_ORDERS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_DISTRIBUTIONS_TAB</t>
+  </si>
+  <si>
+    <t>COURT_DOCUMENTS</t>
+  </si>
+  <si>
+    <t>NOTICE</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>RECIPIENT</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_PROVIDED_WITH_NOTICE</t>
+  </si>
+  <si>
+    <t>NOTICES_BEING_SENT_TO</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENTE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER_VERIFY</t>
+  </si>
+  <si>
+    <t>OPTION_PETITION</t>
+  </si>
+  <si>
+    <t>GENERATE_PETITION_BTN</t>
+  </si>
+  <si>
+    <t>JV 100</t>
+  </si>
+  <si>
+    <t>ALLEGATION_TYPES</t>
+  </si>
+  <si>
+    <t>PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_VERIFY</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>ALLEGATION_TYPES_VERIFY</t>
+  </si>
+  <si>
+    <t>Physical Abuse</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>APPROVAL_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>ACTUAL_APPROVER_VERIFY</t>
+  </si>
+  <si>
+    <t>COMMENTS_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>Interstate Compact Report on Child’s Placement Status (ICPC 100B)</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
     <t>Interstate Compact Report on Child's Placement Status (ICPC 100B)</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS_PRESENT_IN_COURT</t>
-  </si>
-  <si>
-    <t>PARTICIPANTS_PRESENT_REMOTELY</t>
-  </si>
-  <si>
-    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
-    <t>STAFF_WORKER_PRESENT_REMOTELY</t>
-  </si>
-  <si>
-    <t>OTHER_PARTICIPANTS_ATTENDANCE</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTH_WITH_ORDER_DUE_DATE</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS_ORDERED_BY_COURT</t>
-  </si>
-  <si>
-    <t>DISCUSSION</t>
-  </si>
-  <si>
-    <t>PLACEMENT_DISCUSSION</t>
-  </si>
-  <si>
-    <t>ORDERS</t>
-  </si>
-  <si>
-    <t>VISITATION</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>CASA_APPOINTED_DETAILS</t>
-  </si>
-  <si>
-    <t>ORDER_TO_SHOW_CAUSE</t>
-  </si>
-  <si>
-    <t>DISCOVERY_DUE_DATE</t>
-  </si>
-  <si>
-    <t>NEXT_HEARING_TYPE</t>
-  </si>
-  <si>
-    <t>DEPARTMENT_FOR_NEXT_HEARING</t>
-  </si>
-  <si>
-    <t>YES_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>NOT_INCLUDE_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>ROOM_FOR_NEXT_HEARING</t>
-  </si>
-  <si>
-    <t>SAVE_BTN</t>
-  </si>
-  <si>
-    <t>REPORT_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DUE_DATE_TO_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>DUE_DATE_TO_CLERICAL</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_SENT_TO</t>
-  </si>
-  <si>
-    <t>METHOD_OF_TRANSLATION_DOCUMENTS_SENT</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_SENT_DATE</t>
-  </si>
-  <si>
-    <t>TRANSLATION_DOCUMENTS_RECEIVED_DATE</t>
-  </si>
-  <si>
-    <t>NAME_OF_COURT</t>
-  </si>
-  <si>
-    <t>METHOD_OF_FILING</t>
-  </si>
-  <si>
-    <t>DATE_REPORT_FILED</t>
-  </si>
-  <si>
-    <t>FILING_DUE_DATE</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>SUBMITTED_FOR_APPROVAL_DATE</t>
-  </si>
-  <si>
-    <t>SUPERVISOR_APPROVAL_DATE</t>
-  </si>
-  <si>
-    <t>COURT_REPORT_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>REPORT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>OPTION_AMEND_PETITION</t>
-  </si>
-  <si>
-    <t>PETITION_DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>AMEND_PETITION_BTN</t>
-  </si>
-  <si>
-    <t>PETITION_DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>NEW_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>PETITION_ALLEGATION_TAB</t>
-  </si>
-  <si>
-    <t>COURT_MINUTE_ORDER_TAB</t>
-  </si>
-  <si>
-    <t>SELECT_COURT_WORK_ITEM_PARTICIPANT</t>
-  </si>
-  <si>
-    <t>SELECT_FINDINGS</t>
-  </si>
-  <si>
-    <t>KEY_ORDERS</t>
-  </si>
-  <si>
-    <t>COURT_ORDER_STATUS</t>
-  </si>
-  <si>
-    <t>AD_HOC_ACTIVITY_OUTCOME</t>
-  </si>
-  <si>
-    <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
-    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
-    <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>NOT_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
-  </si>
-  <si>
-    <t>IMMEDIATE_ACTION_FORTHWITH_ORDER_DUE_DATE</t>
-  </si>
-  <si>
-    <t>ADDITIONAL_COURT_ORDERS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_DISTRIBUTIONS_TAB</t>
-  </si>
-  <si>
-    <t>COURT_DOCUMENTS</t>
-  </si>
-  <si>
-    <t>NOTICE</t>
-  </si>
-  <si>
-    <t>DISTRIBUTED_DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>RECIPIENT</t>
-  </si>
-  <si>
-    <t>NOTICE_TYPE</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_PROVIDED_WITH_NOTICE</t>
-  </si>
-  <si>
-    <t>NOTICES_BEING_SENT_TO</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_REF_VERIFY</t>
-  </si>
-  <si>
-    <t>FOLIO_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CASE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICE_COMPONENTE_VERIFY</t>
-  </si>
-  <si>
-    <t>PRIMARY_WORKER_VERIFY</t>
-  </si>
-  <si>
-    <t>OPTION_PETITION</t>
-  </si>
-  <si>
-    <t>GENERATE_PETITION_BTN</t>
-  </si>
-  <si>
-    <t>JV 100</t>
-  </si>
-  <si>
-    <t>ALLEGATION_TYPES</t>
-  </si>
-  <si>
-    <t>PARTICIPANT</t>
-  </si>
-  <si>
-    <t>PETITION_ALLEGATION_VERIFY</t>
-  </si>
-  <si>
-    <t>PETITION_ALLEGATION_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>ALLEGATION_TYPES_VERIFY</t>
-  </si>
-  <si>
-    <t>Physical Abuse</t>
-  </si>
-  <si>
-    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>APPROVAL_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>STEP_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSIGNED_TO_VERIFY</t>
-  </si>
-  <si>
-    <t>ACTUAL_APPROVER_VERIFY</t>
-  </si>
-  <si>
-    <t>COMMENTS_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_WORK_ITEM_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>FIELD_VERIFY</t>
-  </si>
-  <si>
-    <t>USER_VERIFY</t>
-  </si>
-  <si>
-    <t>ORIGINAL_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>NEW_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>testT4258</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -915,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
@@ -962,28 +965,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1003,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -1056,43 +1059,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1183,25 +1186,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1289,70 +1292,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1412,64 +1415,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1519,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -1587,28 +1590,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1673,52 +1676,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="S1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1792,37 +1795,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1885,26 +1888,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1977,16 +1980,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -2012,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -2025,16 +2028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -2251,6 +2244,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2261,16 +2264,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2289,6 +2282,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,23 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF8CCA-B2F7-4417-BEA6-7915A697D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73D2338-D3DA-4416-886A-B66D3798BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId1"/>
-    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId2"/>
-    <sheet name="CourtReports" sheetId="8" r:id="rId3"/>
-    <sheet name="AmendPetition" sheetId="12" r:id="rId4"/>
-    <sheet name="CourtsDocuments" sheetId="13" r:id="rId5"/>
-    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId6"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId7"/>
-    <sheet name="RelatedFolios" sheetId="11" r:id="rId8"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId9"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId10"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId11"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId12"/>
+    <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
+    <sheet name="CourtWarrents" sheetId="15" r:id="rId2"/>
+    <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
+    <sheet name="Petition" sheetId="17" r:id="rId4"/>
+    <sheet name="AdHocActivity" sheetId="18" r:id="rId5"/>
+    <sheet name="GenerateDocument" sheetId="1" r:id="rId6"/>
+    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId7"/>
+    <sheet name="CourtReports" sheetId="8" r:id="rId8"/>
+    <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
+    <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId16"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="184">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -94,6 +99,9 @@
     <t>Interstate Compact On The Placement of Children Request (ICPC 100A)</t>
   </si>
   <si>
+    <t>Interstate Compact Report on Child’s Placement Status (ICPC 100B)</t>
+  </si>
+  <si>
     <t>PARTICIPANTS_PRESENT_IN_COURT</t>
   </si>
   <si>
@@ -397,13 +405,205 @@
     <t>AUDIT_HISTORY_TAB</t>
   </si>
   <si>
-    <t>Interstate Compact Report on Child’s Placement Status (ICPC 100B)</t>
-  </si>
-  <si>
-    <t>testT4258</t>
-  </si>
-  <si>
-    <t>Interstate Compact Report on Child's Placement Status (ICPC 100B)</t>
+    <t>COURT_RECORD_EXPAND</t>
+  </si>
+  <si>
+    <t>COURT_CASE</t>
+  </si>
+  <si>
+    <t>DEPENDENCY_COURT_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>ATTORNEY_NAME</t>
+  </si>
+  <si>
+    <t>DELLNQUENCY_COURT_CASE_NUMBER</t>
+  </si>
+  <si>
+    <t>REASON_TO_REOPEN</t>
+  </si>
+  <si>
+    <t>ASSIGNED_SOCIAL_WORKER</t>
+  </si>
+  <si>
+    <t>ASSIGNED_SOCIAL_WORKER_LINK</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>SYSTEM_CLOSED</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>testT4240</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
+    <t>WARRANT_SUBMISSION_DATE_TIME</t>
+  </si>
+  <si>
+    <t>FILING_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_RULING</t>
+  </si>
+  <si>
+    <t>APPROVED_AFTER_HOURS</t>
+  </si>
+  <si>
+    <t>COURT_WARRENT_NUMBER</t>
+  </si>
+  <si>
+    <t>HOBBS_SEALED</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CLONING</t>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>WARRANT_RECALLED_DATE</t>
+  </si>
+  <si>
+    <t>RECALLED_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED_DATE</t>
+  </si>
+  <si>
+    <t>CAPTURE_WARRENT_ID</t>
+  </si>
+  <si>
+    <t>WARRANT_ID</t>
+  </si>
+  <si>
+    <t>VIEWALL</t>
+  </si>
+  <si>
+    <t>DENIAL_DATE_TIME</t>
+  </si>
+  <si>
+    <t>SUBTYPE</t>
+  </si>
+  <si>
+    <t>HEARING_DATE_TIME</t>
+  </si>
+  <si>
+    <t>OTHER_HEARING_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CAPTURE_HEARING_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID</t>
+  </si>
+  <si>
+    <t>REASON_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>DATE_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>PETITION_TYPE</t>
+  </si>
+  <si>
+    <t>PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DATE</t>
+  </si>
+  <si>
+    <t>DATE_OF_RETURN_AMENDED_PETITION_TOCOURT</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITON_SUBMITTED_BY</t>
+  </si>
+  <si>
+    <t>AMENDED_PRTITION_SUBMITTED_DATE</t>
+  </si>
+  <si>
+    <t>FILING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUBMIT_PETITION_TO_COURT</t>
+  </si>
+  <si>
+    <t>ICWA_100_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>ICWA_101_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>testT</t>
+  </si>
+  <si>
+    <t>WIC_300</t>
+  </si>
+  <si>
+    <t>Open-Created</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_TYPE</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_STATUS</t>
+  </si>
+  <si>
+    <t>HEARING_ORDERED</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER_TITLE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER</t>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RELEASED_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RECEIVED_BY_CARES</t>
+  </si>
+  <si>
+    <t>ADHOC_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>Ex Parte Request</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
 </sst>
 </file>
@@ -425,7 +625,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +635,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -465,7 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,25 +972,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="6" max="6" width="60.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -807,23 +1011,56 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -833,97 +1070,223 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -933,7 +1296,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="7" max="7" width="35.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -965,28 +1592,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1006,7 +1633,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -1021,7 +1648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1059,43 +1686,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1153,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1186,25 +1813,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1246,6 +1873,585 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="25.08984375" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53F1CC-8316-4D5B-AB93-2C2C643381EB}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="60.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -1292,70 +2498,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1374,7 +2580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -1415,64 +2621,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1491,12 +2697,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -1558,476 +2764,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
-    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -2244,26 +3000,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2282,20 +3037,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A73D2338-D3DA-4416-886A-B66D3798BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9FFD98-97E5-4D9C-800F-EDD31D5F469F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="5" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -18,18 +18,21 @@
     <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
     <sheet name="Petition" sheetId="17" r:id="rId4"/>
     <sheet name="AdHocActivity" sheetId="18" r:id="rId5"/>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId6"/>
+    <sheet name="CourtGenerateDocument" sheetId="1" r:id="rId6"/>
     <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId7"/>
     <sheet name="CourtReports" sheetId="8" r:id="rId8"/>
     <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
     <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
     <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
-    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId16"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId17"/>
+    <sheet name="Related" sheetId="21" r:id="rId12"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId13"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId14"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId15"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId16"/>
+    <sheet name="Participants" sheetId="20" r:id="rId17"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId18"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId19"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="294">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -108,9 +111,6 @@
     <t>PARTICIPANTS_PRESENT_REMOTELY</t>
   </si>
   <si>
-    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
     <t>STAFF_WORKER_PRESENT_REMOTELY</t>
   </si>
   <si>
@@ -276,9 +276,6 @@
     <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
   </si>
   <si>
-    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
     <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>ASSIGNED_SOCIAL_WORKER</t>
   </si>
   <si>
-    <t>ASSIGNED_SOCIAL_WORKER_LINK</t>
-  </si>
-  <si>
     <t>CONTACT_METHOD</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>CAPTURE_WARRENT_ID</t>
   </si>
   <si>
-    <t>WARRANT_ID</t>
-  </si>
-  <si>
     <t>VIEWALL</t>
   </si>
   <si>
@@ -604,6 +595,348 @@
   </si>
   <si>
     <t>today</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEMS</t>
+  </si>
+  <si>
+    <t>Runaway or Abducted Warrant</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>Continued Detention Hearing</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID1</t>
+  </si>
+  <si>
+    <t>RELATED_TAB</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTINUANCE_HEARING_REQUESTBY_VERIFY</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY</t>
+  </si>
+  <si>
+    <t>HEARING_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_ADDRESS_INFORMATION</t>
+  </si>
+  <si>
+    <t>HEARING_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>WARRENT_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID1</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE2</t>
+  </si>
+  <si>
+    <t>Vacated</t>
+  </si>
+  <si>
+    <t>I wont tell</t>
+  </si>
+  <si>
+    <t>VERIFY_SUCCESS_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SINGLE_CHILD_RB</t>
+  </si>
+  <si>
+    <t>MULTIPLE_CHILDREN_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_YES_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_NO_RB</t>
+  </si>
+  <si>
+    <t>SELECT_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>testT4245</t>
+  </si>
+  <si>
+    <t>JV 410</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>WIC 300</t>
+  </si>
+  <si>
+    <t>Open - Created</t>
+  </si>
+  <si>
+    <t>E-filing</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID1</t>
+  </si>
+  <si>
+    <t>CMMANAGERCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>Paper filing</t>
+  </si>
+  <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_VISIBLE</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_CHECKBOX_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT_VERIFY</t>
+  </si>
+  <si>
+    <t>REJECT_BTN</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>APPROVE_BTN</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Courts Own Motion</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>CONTINUED_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>NO_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>Active Efforts to Reunify Made</t>
+  </si>
+  <si>
+    <t>15-Day Review Ordered</t>
+  </si>
+  <si>
+    <t>As Recommended</t>
+  </si>
+  <si>
+    <t>WARRENTS</t>
+  </si>
+  <si>
+    <t>PETITIONS</t>
+  </si>
+  <si>
+    <t>HEARINGS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITIES</t>
+  </si>
+  <si>
+    <t>CHILD_REN</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PICK_FOCUS_CHILD_BTN</t>
+  </si>
+  <si>
+    <t>SELECT_CHILDREN</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID</t>
+  </si>
+  <si>
+    <t>PICK_PARTICIPANT_BTN</t>
+  </si>
+  <si>
+    <t>SELECT_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>YES_RB</t>
+  </si>
+  <si>
+    <t>NO_RB</t>
+  </si>
+  <si>
+    <t>Active - Submitted to court</t>
+  </si>
+  <si>
+    <t>OTHER_FINDING_DETAILS</t>
+  </si>
+  <si>
+    <t>DATE_OF_TERMINATION_OF_JURISDICTION</t>
+  </si>
+  <si>
+    <t>TERMINATION_OF_JURISDICTION_REASON</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Jurisdiction Terminated</t>
+  </si>
+  <si>
+    <t>Children Adopted</t>
+  </si>
+  <si>
+    <t>MULTI_KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>CMO_ID</t>
+  </si>
+  <si>
+    <t>CMO_ID1</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Granted</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Denied</t>
+  </si>
+  <si>
+    <t>FOLIO_RECORD_ID</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>COURT_OFFICERS_NOTES_TAB</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>DISCOVERY</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>Autocase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>testT4258</t>
   </si>
 </sst>
 </file>
@@ -625,7 +958,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +968,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -659,6 +1022,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,16 +1361,22 @@
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1012,78 +1387,532 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>125</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" t="s">
-        <v>10</v>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1123,28 +1952,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1173,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,95 +2027,311 @@
     <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="T1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1297,6 +2342,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4940952E-C868-4873-B6FF-4F836CDED0DF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1328,37 +2429,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1390,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1421,26 +2522,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1482,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1513,16 +2614,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -1548,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -1560,12 +2661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,7 +2682,7 @@
     <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1592,31 +2693,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1633,12 +2740,47 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1648,12 +2790,336 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:P2"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1675,7 +3141,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1686,46 +3152,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1772,6 +3247,35 @@
         <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1780,12 +3284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,25 +3317,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1874,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1886,10 +3390,22 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.90625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1900,72 +3416,355 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>140</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>142</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" t="s">
         <v>143</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>144</v>
       </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W1" t="s">
-        <v>147</v>
-      </c>
-      <c r="X1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1973,7 +3772,82 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,10 +3867,38 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2007,54 +3909,971 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2064,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2080,122 +4899,384 @@
     <col min="21" max="21" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>9</v>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2231,48 +5312,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2284,7 +5365,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -2305,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -2324,10 +5405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2341,7 +5422,7 @@
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2366,8 +5447,32 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2392,8 +5497,32 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2418,8 +5547,32 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2443,6 +5596,230 @@
       </c>
       <c r="H4" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +5830,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2487,92 +5864,176 @@
     <col min="24" max="24" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2621,64 +6082,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2699,10 +6160,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2717,47 +6178,305 @@
     <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2765,25 +6484,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3000,25 +6700,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3037,6 +6738,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
